--- a/data/trans_camb/P7_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,07</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,68</t>
+          <t>-6,44; 4,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,76</t>
+          <t>-5,39; 4,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,44</t>
+          <t>-6,89; 4,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,04</t>
+          <t>-8,97; 2,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 4,05</t>
+          <t>-5,55; 4,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,76</t>
+          <t>-7,69; 3,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 3,26</t>
+          <t>-8,95; 2,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,96</t>
+          <t>-9,14; 2,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,88</t>
+          <t>-4,43; 3,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 2,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 1,76</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 0,8</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>-0,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,38%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-2,56%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-3,27%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 5,16</t>
+          <t>-6,8; 4,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,21</t>
+          <t>-5,64; 5,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 4,95</t>
+          <t>-7,19; 4,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 5,52</t>
+          <t>-9,29; 2,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 4,52</t>
+          <t>-5,91; 5,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,26</t>
+          <t>-8,06; 3,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,57</t>
+          <t>-9,46; 2,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,24</t>
+          <t>-9,67; 2,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,17</t>
+          <t>-4,69; 3,51</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 2,95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 1,91</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-7,86; 0,92</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 6,01</t>
+          <t>-9,9; 7,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 4,52</t>
+          <t>-12,11; 5,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 4,92</t>
+          <t>-10,29; 6,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 9,32</t>
+          <t>-10,63; 6,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 9,19</t>
+          <t>-5,01; 5,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 9,04</t>
+          <t>-4,85; 5,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,0</t>
+          <t>-6,33; 4,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,35</t>
+          <t>-9,54; 2,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,58</t>
+          <t>-5,5; 4,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 3,66</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 3,25</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 2,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>-2,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,16%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-3,06%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 6,74</t>
+          <t>-10,26; 8,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 5,06</t>
+          <t>-12,58; 6,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,51</t>
+          <t>-10,74; 6,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 10,83</t>
+          <t>-11,11; 7,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 10,66</t>
+          <t>-5,3; 5,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 10,33</t>
+          <t>-5,09; 5,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,55</t>
+          <t>-6,63; 5,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,79</t>
+          <t>-10,14; 2,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,04</t>
+          <t>-5,7; 4,82</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 3,9</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 3,55</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 2,51</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 9,08</t>
+          <t>-8,02; 13,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 9,16</t>
+          <t>-7,09; 13,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 9,0</t>
+          <t>-6,84; 13,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 4,73</t>
+          <t>-12,09; 10,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 5,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 5,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 5,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 5,79</t>
+          <t>-15,19; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 5,84</t>
+          <t>-3,72; 5,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 5,95</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 5,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 2,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-2,99%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 10,59</t>
+          <t>-8,18; 15,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 10,64</t>
+          <t>-7,31; 16,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 10,43</t>
+          <t>-6,87; 16,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,96</t>
+          <t>-12,64; 11,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 5,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 6,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 6,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 6,33</t>
+          <t>-15,19; 0,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 6,32</t>
+          <t>-3,72; 6,26</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 6,31</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 6,31</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-10,4; 2,17</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>-0,42</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,04</t>
+          <t>-5,54; 4,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 2,76</t>
+          <t>-6,01; 3,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,55</t>
+          <t>-5,87; 3,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,99</t>
+          <t>-7,09; 1,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,74</t>
+          <t>-3,28; 2,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,65</t>
+          <t>-4,65; 2,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,79</t>
+          <t>-5,68; 1,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,42</t>
+          <t>-7,15; 0,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,34</t>
+          <t>-3,35; 2,3</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 1,79</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 0,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; -0,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>-2,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-3,38%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>-0,44%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-1,14%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-3,14%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,31</t>
+          <t>-5,74; 4,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,99</t>
+          <t>-6,24; 3,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,78</t>
+          <t>-6,13; 3,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,43</t>
+          <t>-7,46; 2,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 4,12</t>
+          <t>-3,42; 3,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,07</t>
+          <t>-4,9; 2,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,06</t>
+          <t>-5,86; 1,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,65</t>
+          <t>-7,47; 0,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,57</t>
+          <t>-3,54; 2,48</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 1,92</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 0,93</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; -0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
